--- a/all_books.xlsx
+++ b/all_books.xlsx
@@ -14,51 +14,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Client Name</t>
-  </si>
-  <si>
-    <t>CLient Email</t>
-  </si>
-  <si>
-    <t>CLient NationalID</t>
-  </si>
-  <si>
-    <t>mahmoud</t>
-  </si>
-  <si>
-    <t>mahmoud@gmail.com</t>
-  </si>
-  <si>
-    <t>2123213124</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+  <si>
+    <t>Book Code</t>
+  </si>
+  <si>
+    <t>Book Name</t>
+  </si>
+  <si>
+    <t>Book Description</t>
+  </si>
+  <si>
+    <t>Book Category</t>
+  </si>
+  <si>
+    <t>Book Author</t>
+  </si>
+  <si>
+    <t>Book publisher</t>
+  </si>
+  <si>
+    <t>Book Price</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>space travel</t>
+  </si>
+  <si>
+    <t>space travel 3</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Mahmoud Ahmed</t>
+  </si>
+  <si>
+    <t>Ahmed Ali</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>python coding</t>
+  </si>
+  <si>
+    <t>python tutorials</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>sayed</t>
+  </si>
+  <si>
+    <t>maati</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>python programming</t>
+  </si>
+  <si>
+    <t>this is a book for python</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>pyqt library system</t>
+  </si>
+  <si>
+    <t>a real project with pyqt5</t>
   </si>
   <si>
     <t>ahmed</t>
   </si>
   <si>
-    <t>ahmed@gmail.com</t>
-  </si>
-  <si>
-    <t>21232674676</t>
-  </si>
-  <si>
-    <t>jack</t>
-  </si>
-  <si>
-    <t>jack22@gmail.com</t>
-  </si>
-  <si>
-    <t>123142423</t>
-  </si>
-  <si>
-    <t>john33</t>
-  </si>
-  <si>
-    <t>john33@gmail.com</t>
-  </si>
-  <si>
-    <t>4534636346</t>
+    <t>200</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>pyqt5 project</t>
+  </si>
+  <si>
+    <t>build a library system</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>an african  book</t>
+  </si>
+  <si>
+    <t>As you like it</t>
+  </si>
+  <si>
+    <t>love by all it user</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>Darkest love</t>
+  </si>
+  <si>
+    <t>this boook is about a love drama</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>15000</t>
   </si>
 </sst>
 </file>
@@ -390,13 +474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,49 +490,178 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
